--- a/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
+++ b/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaProjeler\Cucumber_Kursu2\src\test\java\ApachePOI\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w10\IdeaProjects\Cucumber_Kursu3\src\test\java\ApachePOI\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,21 +63,6 @@
     <t>bes</t>
   </si>
   <si>
-    <t>ulkeleris11</t>
-  </si>
-  <si>
-    <t>ulkeleris22</t>
-  </si>
-  <si>
-    <t>ulkeleris33</t>
-  </si>
-  <si>
-    <t>ulkeleris44</t>
-  </si>
-  <si>
-    <t>ulkeleris55</t>
-  </si>
-  <si>
     <t>ulkeleris66</t>
   </si>
   <si>
@@ -87,21 +72,6 @@
     <t>ulkeleris88</t>
   </si>
   <si>
-    <t>umis1</t>
-  </si>
-  <si>
-    <t>umis2</t>
-  </si>
-  <si>
-    <t>umis3</t>
-  </si>
-  <si>
-    <t>umis4</t>
-  </si>
-  <si>
-    <t>umis5</t>
-  </si>
-  <si>
     <t>umis6</t>
   </si>
   <si>
@@ -109,6 +79,36 @@
   </si>
   <si>
     <t>umis8</t>
+  </si>
+  <si>
+    <t>ulkelermusabaa</t>
+  </si>
+  <si>
+    <t>ulkelerhacıya</t>
+  </si>
+  <si>
+    <t>ulkelerboncua</t>
+  </si>
+  <si>
+    <t>umis31</t>
+  </si>
+  <si>
+    <t>umis41</t>
+  </si>
+  <si>
+    <t>umis51</t>
+  </si>
+  <si>
+    <t>ulkelerle</t>
+  </si>
+  <si>
+    <t>ulkelerlerle</t>
+  </si>
+  <si>
+    <t>umis15</t>
+  </si>
+  <si>
+    <t>umis25</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -543,10 +543,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -563,10 +563,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -583,10 +583,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -603,10 +603,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -623,10 +623,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
